--- a/queryfile.xlsx
+++ b/queryfile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t xml:space="preserve">query_name</t>
   </si>
@@ -28,25 +28,46 @@
     <t xml:space="preserve">index_code</t>
   </si>
   <si>
-    <t xml:space="preserve">cond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_query1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code==FLNOR &amp; product==TS300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_query2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">productgroup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">productgroup==10</t>
+    <t xml:space="preserve">condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialpricecat product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialpricecat==012 &amp; product==SJ300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">woolworths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialpricecat==010 &amp; product==SJ300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialpricecat==092 &amp; product==SJ300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat==88 &amp; product==SJ300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distributors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat code product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat==81 &amp; product==SJ300</t>
   </si>
 </sst>
 </file>
@@ -143,10 +164,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -184,10 +205,43 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/queryfile.xlsx
+++ b/queryfile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t xml:space="preserve">query_name</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">condition</t>
   </si>
   <si>
-    <t xml:space="preserve">coles</t>
+    <t xml:space="preserve">Coles_SJ300</t>
   </si>
   <si>
     <t xml:space="preserve">specialpricecat product</t>
@@ -40,34 +40,64 @@
     <t xml:space="preserve">specialpricecat==012 &amp; product==SJ300</t>
   </si>
   <si>
-    <t xml:space="preserve">woolworths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specialpricecat==010 &amp; product==SJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specialpricecat==092 &amp; product==SJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cat product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cat==88 &amp; product==SJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distributors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cat code product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cat==81 &amp; product==SJ300</t>
+    <t xml:space="preserve">Woolworths_SJ300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialpricecat==010 &amp; product==SJ300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indies_SJ300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(specialpricecat==088 | specialpricecat==028 | specialpricecat==038 | specialpricecat==048 | specialpricecat==058 | specialpricecat==068 | specialpricecat==078 ) &amp; product==SJ300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distributors_SJ300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(specialpricecat==080 | specialpricecat==020 | specialpricecat==030 | specialpricecat==040 | specialpricecat==050 | specialpricecat==060 | specialpricecat==070 ) &amp; product==SJ300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coles_RJ300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialpricecat==012 &amp; product==RJ300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woolworths_RJ300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialpricecat==010 &amp; product==RJ300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indies_RJ300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(specialpricecat==088 | specialpricecat==028 | specialpricecat==038 | specialpricecat==048 | specialpricecat==058 | specialpricecat==068 | specialpricecat==078 ) &amp; product==RJ300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distributors_RJ300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(specialpricecat==080 | specialpricecat==020 | specialpricecat==030 | specialpricecat==040 | specialpricecat==050 | specialpricecat==060 | specialpricecat==070 ) &amp; product==RJ300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indies_CFJ300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(specialpricecat==088 | specialpricecat==028 | specialpricecat==038 | specialpricecat==048 | specialpricecat==058 | specialpricecat==068 | specialpricecat==078 ) &amp; product==CFJ300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distributors_CFJ300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(specialpricecat==080 | specialpricecat==020 | specialpricecat==030 | specialpricecat==040 | specialpricecat==050 | specialpricecat==060 | specialpricecat==070 ) &amp; product==CFJ300</t>
   </si>
 </sst>
 </file>
@@ -164,15 +194,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.49"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
@@ -216,32 +246,87 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/queryfile.xlsx
+++ b/queryfile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t xml:space="preserve">query_name</t>
   </si>
@@ -31,73 +31,55 @@
     <t xml:space="preserve">condition</t>
   </si>
   <si>
-    <t xml:space="preserve">Coles_SJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specialpricecat product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specialpricecat==012 &amp; product==SJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woolworths_SJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specialpricecat==010 &amp; product==SJ300 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indies_SJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(specialpricecat==088 | specialpricecat==028 | specialpricecat==038 | specialpricecat==048 | specialpricecat==058 | specialpricecat==068 | specialpricecat==078 ) &amp; product==SJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distributors_SJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(specialpricecat==080 | specialpricecat==020 | specialpricecat==030 | specialpricecat==040 | specialpricecat==050 | specialpricecat==060 | specialpricecat==070 ) &amp; product==SJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coles_RJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specialpricecat==012 &amp; product==RJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woolworths_RJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specialpricecat==010 &amp; product==RJ300 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indies_RJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(specialpricecat==088 | specialpricecat==028 | specialpricecat==038 | specialpricecat==048 | specialpricecat==058 | specialpricecat==068 | specialpricecat==078 ) &amp; product==RJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distributors_RJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(specialpricecat==080 | specialpricecat==020 | specialpricecat==030 | specialpricecat==040 | specialpricecat==050 | specialpricecat==060 | specialpricecat==070 ) &amp; product==RJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indies_CFJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(specialpricecat==088 | specialpricecat==028 | specialpricecat==038 | specialpricecat==048 | specialpricecat==058 | specialpricecat==068 | specialpricecat==078 ) &amp; product==CFJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distributors_CFJ300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(specialpricecat==080 | specialpricecat==020 | specialpricecat==030 | specialpricecat==040 | specialpricecat==050 | specialpricecat==060 | specialpricecat==070 ) &amp; product==CFJ300</t>
+    <t xml:space="preserve">Indies_jams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">productgroup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(specialpricecat==088 | specialpricecat==028 | specialpricecat==038 | specialpricecat==048 ) &amp; productgroup==10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indies_sauces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(specialpricecat==088 | specialpricecat==028 | specialpricecat==038 | specialpricecat==048 ) &amp; productgroup==11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indies_cond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(specialpricecat==088 | specialpricecat==028 | specialpricecat==038 | specialpricecat==048 ) &amp; productgroup==13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indies_dressings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(specialpricecat==088 | specialpricecat==028 | specialpricecat==038 | specialpricecat==048 ) &amp; productgroup==12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dist_jams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(specialpricecat==080 | specialpricecat==020 | specialpricecat==030 | specialpricecat==040  | specialpricecat==050 | specialpricecat==060 ) &amp; productgroup==10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dist_sauces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(specialpricecat==080 | specialpricecat==020 | specialpricecat==030 | specialpricecat==040  | specialpricecat==050 | specialpricecat==060 ) &amp; productgroup==11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dist_cond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(specialpricecat==080 | specialpricecat==020 | specialpricecat==030 | specialpricecat==040  | specialpricecat==050 | specialpricecat==060 ) &amp; productgroup==13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dist_dressings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(specialpricecat==080 | specialpricecat==020 | specialpricecat==030 | specialpricecat==040  | specialpricecat==050 | specialpricecat==060 ) &amp; productgroup==12 </t>
   </si>
 </sst>
 </file>
@@ -194,10 +176,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10:B11"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -246,87 +228,65 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/queryfile.xlsx
+++ b/queryfile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">query_name</t>
   </si>
@@ -31,55 +31,13 @@
     <t xml:space="preserve">condition</t>
   </si>
   <si>
-    <t xml:space="preserve">Indies_jams</t>
+    <t xml:space="preserve">080_SA_distributors_retail</t>
   </si>
   <si>
-    <t xml:space="preserve">productgroup </t>
+    <t xml:space="preserve">specialpricecat</t>
   </si>
   <si>
-    <t xml:space="preserve">(specialpricecat==088 | specialpricecat==028 | specialpricecat==038 | specialpricecat==048 ) &amp; productgroup==10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indies_sauces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(specialpricecat==088 | specialpricecat==028 | specialpricecat==038 | specialpricecat==048 ) &amp; productgroup==11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indies_cond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(specialpricecat==088 | specialpricecat==028 | specialpricecat==038 | specialpricecat==048 ) &amp; productgroup==13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indies_dressings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(specialpricecat==088 | specialpricecat==028 | specialpricecat==038 | specialpricecat==048 ) &amp; productgroup==12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dist_jams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(specialpricecat==080 | specialpricecat==020 | specialpricecat==030 | specialpricecat==040  | specialpricecat==050 | specialpricecat==060 ) &amp; productgroup==10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dist_sauces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(specialpricecat==080 | specialpricecat==020 | specialpricecat==030 | specialpricecat==040  | specialpricecat==050 | specialpricecat==060 ) &amp; productgroup==11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dist_cond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(specialpricecat==080 | specialpricecat==020 | specialpricecat==030 | specialpricecat==040  | specialpricecat==050 | specialpricecat==060 ) &amp; productgroup==13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dist_dressings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(specialpricecat==080 | specialpricecat==020 | specialpricecat==030 | specialpricecat==040  | specialpricecat==050 | specialpricecat==060 ) &amp; productgroup==12 </t>
+    <t xml:space="preserve">(specialpricecat==080 )  &amp; (productgroup==10  | productgroup==11  | productgroup==12  | productgroup==13  | productgroup==14 )  </t>
   </si>
 </sst>
 </file>
@@ -176,15 +134,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.49"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
@@ -212,83 +170,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/queryfile.xlsx
+++ b/queryfile.xlsx
@@ -31,13 +31,13 @@
     <t xml:space="preserve">condition</t>
   </si>
   <si>
-    <t xml:space="preserve">080_SA_distributors_retail</t>
+    <t xml:space="preserve">FLPAS_jams</t>
   </si>
   <si>
-    <t xml:space="preserve">specialpricecat</t>
+    <t xml:space="preserve">code</t>
   </si>
   <si>
-    <t xml:space="preserve">(specialpricecat==080 )  &amp; (productgroup==10  | productgroup==11  | productgroup==12  | productgroup==13  | productgroup==14 )  </t>
+    <t xml:space="preserve">code==FLPAS  &amp;  productgroup==10   </t>
   </si>
 </sst>
 </file>
@@ -136,13 +136,13 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.49"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
